--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_20-19.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_20-19.xlsx
@@ -47,6 +47,12 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>ALPHAVIM 300 - 20 CAPS.</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
     <t xml:space="preserve">EVAL CARE  GEL</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -224,7 +233,7 @@
     <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
@@ -339,6 +348,12 @@
   </si>
   <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1103,17 +1118,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1129,17 +1144,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>37.5</v>
+        <v>80</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1155,17 +1170,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>84</v>
+        <v>37.5</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1181,17 +1196,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1199,7 +1214,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1207,13 +1222,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>30.5</v>
+        <v>24</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1225,7 +1240,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1233,17 +1248,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>-33</v>
+        <v>30.5</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1259,17 +1274,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>78</v>
+        <v>-33</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1277,7 +1292,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1285,13 +1300,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1311,13 +1326,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1329,7 +1344,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1343,7 +1358,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1355,7 +1370,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1363,17 +1378,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1381,7 +1396,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1389,17 +1404,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1421,7 +1436,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1441,17 +1456,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1459,7 +1474,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1467,17 +1482,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1485,7 +1500,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1493,13 +1508,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>82.5</v>
+        <v>76</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1525,7 +1540,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>21</v>
+        <v>82.5</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1551,11 +1566,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1571,17 +1586,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1589,7 +1604,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1597,17 +1612,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1629,11 +1644,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1655,7 +1670,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1675,17 +1690,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1693,7 +1708,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1701,13 +1716,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1719,7 +1734,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1727,13 +1742,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1745,7 +1760,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1753,13 +1768,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1771,7 +1786,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1779,7 +1794,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1789,7 +1804,7 @@
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1805,17 +1820,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1823,7 +1838,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1831,13 +1846,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1857,13 +1872,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1883,17 +1898,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1901,7 +1916,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1909,13 +1924,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1935,17 +1950,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1953,7 +1968,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1961,17 +1976,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>71.5</v>
+        <v>24</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1987,17 +2002,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2005,7 +2020,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2013,17 +2028,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>78</v>
+        <v>71.5</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2031,7 +2046,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2039,17 +2054,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2057,7 +2072,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2065,17 +2080,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2083,7 +2098,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2091,17 +2106,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2109,7 +2124,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2117,13 +2132,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2135,7 +2150,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2143,17 +2158,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2161,7 +2176,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2169,17 +2184,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2195,13 +2210,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2221,17 +2236,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2247,17 +2262,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>-72.5</v>
+        <v>39</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2273,13 +2288,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2305,7 +2320,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>36.5</v>
+        <v>100</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2325,17 +2340,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>57</v>
+        <v>-72.5</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2351,13 +2366,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2383,11 +2398,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>46</v>
+        <v>36.5</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2403,17 +2418,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2429,13 +2444,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2455,17 +2470,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2481,13 +2496,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2499,7 +2514,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2507,17 +2522,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2525,7 +2540,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2533,13 +2548,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>-135</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2551,7 +2566,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2559,17 +2574,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2577,7 +2592,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2585,17 +2600,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2603,7 +2618,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2611,17 +2626,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>8</v>
+        <v>-135</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2629,7 +2644,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2637,17 +2652,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2663,7 +2678,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -2673,7 +2688,7 @@
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2689,13 +2704,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2715,17 +2730,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2747,11 +2762,11 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2767,17 +2782,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2793,17 +2808,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2819,17 +2834,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>28.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2837,7 +2852,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2845,17 +2860,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2863,7 +2878,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2871,13 +2886,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2889,7 +2904,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2897,17 +2912,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>59</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2923,17 +2938,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2949,17 +2964,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2975,13 +2990,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -3001,17 +3016,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3027,17 +3042,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3059,11 +3074,11 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3079,17 +3094,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3097,7 +3112,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3105,17 +3120,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3123,7 +3138,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3131,17 +3146,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3149,7 +3164,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3157,13 +3172,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3175,7 +3190,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3183,17 +3198,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3215,11 +3230,11 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3235,17 +3250,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3253,7 +3268,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3261,13 +3276,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3279,7 +3294,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3287,13 +3302,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3305,7 +3320,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3313,13 +3328,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3331,7 +3346,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3339,17 +3354,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>11.67</v>
+        <v>10</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3357,7 +3372,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3365,13 +3380,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3383,7 +3398,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3391,17 +3406,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3409,7 +3424,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3417,17 +3432,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>133</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3435,7 +3450,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3443,17 +3458,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>2</v>
+        <v>11.67</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3461,7 +3476,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3469,13 +3484,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3487,7 +3502,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3495,17 +3510,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>133.65000000000001</v>
+        <v>28</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3513,7 +3528,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3521,17 +3536,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3547,13 +3562,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3565,7 +3580,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3573,13 +3588,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3591,7 +3606,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3599,17 +3614,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>50</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3617,7 +3632,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3631,11 +3646,11 @@
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3643,7 +3658,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3651,13 +3666,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3669,7 +3684,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3677,13 +3692,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3695,7 +3710,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3703,17 +3718,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3721,7 +3736,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3729,17 +3744,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3747,7 +3762,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3755,17 +3770,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3773,7 +3788,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3781,7 +3796,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -3794,38 +3809,142 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" ht="26.25" customHeight="1">
-      <c r="K110" s="10">
-        <v>5061.5200000000004</v>
-      </c>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="11">
+    <row r="110" ht="25.5" customHeight="1">
+      <c r="A110" s="6">
+        <v>107</v>
+      </c>
+      <c t="s" r="B110" s="7">
         <v>150</v>
       </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c t="s" r="F111" s="12">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c t="s" r="H110" s="8">
+        <v>58</v>
+      </c>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="9">
+        <v>60</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c t="s" r="N110" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" ht="24.75" customHeight="1">
+      <c r="A111" s="6">
+        <v>108</v>
+      </c>
+      <c t="s" r="B111" s="7">
         <v>151</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="13"/>
-      <c t="s" r="I111" s="14">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c t="s" r="H111" s="8">
+        <v>58</v>
+      </c>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="9">
+        <v>40</v>
+      </c>
+      <c r="M111" s="9"/>
+      <c t="s" r="N111" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="6">
+        <v>109</v>
+      </c>
+      <c t="s" r="B112" s="7">
         <v>152</v>
       </c>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c t="s" r="H112" s="8">
+        <v>44</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="9">
+        <v>80</v>
+      </c>
+      <c r="M112" s="9"/>
+      <c t="s" r="N112" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" ht="25.5" customHeight="1">
+      <c r="A113" s="6">
+        <v>110</v>
+      </c>
+      <c t="s" r="B113" s="7">
+        <v>153</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c t="s" r="H113" s="8">
+        <v>154</v>
+      </c>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="9">
+        <v>20</v>
+      </c>
+      <c r="M113" s="9"/>
+      <c t="s" r="N113" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="K114" s="10">
+        <v>5260.5200000000004</v>
+      </c>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="11">
+        <v>155</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c t="s" r="F115" s="12">
+        <v>156</v>
+      </c>
+      <c r="G115" s="12"/>
+      <c r="H115" s="13"/>
+      <c t="s" r="I115" s="14">
+        <v>157</v>
+      </c>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="329">
+  <mergeCells count="341">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4151,10 +4270,22 @@
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
-    <mergeCell ref="K110:N110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="I111:N111"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="K114:N114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="I115:N115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
